--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -36,6 +36,9 @@
     <t>lastTime</t>
   </si>
   <si>
+    <t>speed</t>
+  </si>
+  <si>
     <t>startEffectList</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
   </si>
   <si>
     <t>持续时间(ms)</t>
+  </si>
+  <si>
+    <t>速度</t>
   </si>
   <si>
     <t>开始的时候触发的效果列表</t>
@@ -103,7 +109,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -111,14 +139,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -127,24 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,9 +224,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,75 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,25 +262,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,145 +430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,62 +453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,11 +480,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +514,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -555,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1069,13 +1075,13 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
-    <col min="8" max="8" width="25.75" customWidth="1"/>
-    <col min="9" max="9" width="34.25" customWidth="1"/>
+    <col min="5" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
+    <col min="10" max="10" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,66 +1109,75 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:9">
+    <row r="3" ht="93" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1170,10 +1185,10 @@
         <v>3001001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1181,27 +1196,33 @@
       <c r="F4" s="1">
         <v>99999999</v>
       </c>
-      <c r="H4">
-        <v>1111</v>
+      <c r="G4" s="1">
+        <v>500</v>
+      </c>
+      <c r="I4">
+        <v>4001001</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:7">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:7">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="3:6">
+    <row r="7" ht="15" customHeight="1" spans="3:7">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -48,6 +48,9 @@
     <t>endEffectList</t>
   </si>
   <si>
+    <t>effectResId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -72,7 +75,7 @@
     <t>持续时间(ms)</t>
   </si>
   <si>
-    <t>速度</t>
+    <t>速度（* 1000）</t>
   </si>
   <si>
     <t>开始的时候触发的效果列表</t>
@@ -84,10 +87,16 @@
     <t>结束的时候触发的效果列表</t>
   </si>
   <si>
+    <t>效果资源id</t>
+  </si>
+  <si>
+    <t>上官翎普通攻击投掷物</t>
+  </si>
+  <si>
+    <t>上官翎技能1</t>
+  </si>
+  <si>
     <t>上官翎技能1投掷物</t>
-  </si>
-  <si>
-    <t>上官翎技能投掷物</t>
   </si>
 </sst>
 </file>
@@ -96,9 +105,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,16 +119,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,19 +196,49 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,98 +249,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,55 +271,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,127 +427,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,11 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +491,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,17 +530,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -517,9 +539,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,21 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1079,9 +1088,10 @@
     <col min="8" max="8" width="24.75" customWidth="1"/>
     <col min="9" max="9" width="25.75" customWidth="1"/>
     <col min="10" max="10" width="34.25" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,72 +1122,81 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+    <row r="3" ht="93" customHeight="1" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1185,10 +1204,10 @@
         <v>3001001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1197,18 +1216,43 @@
         <v>99999999</v>
       </c>
       <c r="G4" s="1">
-        <v>500</v>
-      </c>
-      <c r="I4">
+        <v>9000</v>
+      </c>
+      <c r="J4">
         <v>4001001</v>
       </c>
+      <c r="K4">
+        <v>15008002</v>
+      </c>
     </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3001002</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>99999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I5">
+        <v>4001002</v>
+      </c>
+      <c r="K5">
+        <v>15008003</v>
+      </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" s="1"/>

--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>上官翎技能1投掷物</t>
+  </si>
+  <si>
+    <t>怪物1普通攻击</t>
   </si>
 </sst>
 </file>
@@ -105,9 +108,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,6 +121,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -125,39 +181,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +234,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -179,77 +243,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,43 +274,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,25 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,103 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +465,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +488,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,17 +534,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,15 +557,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -547,21 +565,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,19 +585,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,112 +606,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,7 +1079,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1218,7 +1221,7 @@
       <c r="G4" s="1">
         <v>9000</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>4001001</v>
       </c>
       <c r="K4">
@@ -1242,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>99999999</v>
+        <v>2000</v>
       </c>
       <c r="G5" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="I5">
         <v>4001002</v>
@@ -1261,12 +1264,34 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="3:7">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3002001</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>99999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9000</v>
+      </c>
+      <c r="I7">
+        <v>4002001</v>
+      </c>
+      <c r="K7">
+        <v>15008003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Zxy</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 投掷物碰到的目标
+2 区域选取的目标</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -30,6 +63,9 @@
     <t>describe</t>
   </si>
   <si>
+    <t>effectTargetType</t>
+  </si>
+  <si>
     <t>isFollow</t>
   </si>
   <si>
@@ -67,6 +103,9 @@
   </si>
   <si>
     <t>技能介绍</t>
+  </si>
+  <si>
+    <t>施加效果的目标类型</t>
   </si>
   <si>
     <t>是否跟随</t>
@@ -107,17 +146,137 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,140 +288,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -274,162 +324,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,12 +499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +522,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,15 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,6 +553,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,15 +601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,17 +615,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,25 +1126,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="24.75" customWidth="1"/>
-    <col min="9" max="9" width="25.75" customWidth="1"/>
-    <col min="10" max="10" width="34.25" customWidth="1"/>
-    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="10" max="10" width="25.75" customWidth="1"/>
+    <col min="11" max="11" width="34.25" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,78 +1179,87 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:11">
+    <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
         <v>23</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1207,28 +1267,31 @@
         <v>3001001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>99999999</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>9000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4001001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>15008002</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1236,35 +1299,38 @@
         <v>3001002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>2000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>7000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4001002</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>15008003</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:8">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1272,31 +1338,38 @@
         <v>3002001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>99999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>9000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4002001</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>15008003</v>
       </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 跟随施法者
+2 转向点到施法者的方向,
+3 固定方向偏转</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -72,9 +96,18 @@
     <t>lastTime</t>
   </si>
   <si>
+    <t>deflectionAngle</t>
+  </si>
+  <si>
     <t>speed</t>
   </si>
   <si>
+    <t>isThrough</t>
+  </si>
+  <si>
+    <t>isFlyMaxRange</t>
+  </si>
+  <si>
     <t>startEffectList</t>
   </si>
   <si>
@@ -84,6 +117,21 @@
     <t>endEffectList</t>
   </si>
   <si>
+    <t>collisionEffectEntityType</t>
+  </si>
+  <si>
+    <t>endRedirectCount</t>
+  </si>
+  <si>
+    <t>endRedirectType</t>
+  </si>
+  <si>
+    <t>endRedirectParam</t>
+  </si>
+  <si>
+    <t>endRedirectLastTime</t>
+  </si>
+  <si>
     <t>effectResId</t>
   </si>
   <si>
@@ -114,9 +162,18 @@
     <t>持续时间(ms)</t>
   </si>
   <si>
+    <t>偏转角度(适用非跟随)</t>
+  </si>
+  <si>
     <t>速度（* 1000）</t>
   </si>
   <si>
+    <t>是否穿透</t>
+  </si>
+  <si>
+    <t>是否飞行最大距离(只看飞行时间,不看是否到达技能目标点)</t>
+  </si>
+  <si>
     <t>开始的时候触发的效果列表</t>
   </si>
   <si>
@@ -126,19 +183,40 @@
     <t>结束的时候触发的效果列表</t>
   </si>
   <si>
+    <t>碰到物体时触发的对应实体类型(待加)</t>
+  </si>
+  <si>
+    <t>结束时转向次数</t>
+  </si>
+  <si>
+    <t>结束时转向类型</t>
+  </si>
+  <si>
+    <t>结束时转向参数</t>
+  </si>
+  <si>
+    <t>结束时转向之后持续时间</t>
+  </si>
+  <si>
     <t>效果资源id</t>
   </si>
   <si>
     <t>上官翎普通攻击投掷物</t>
   </si>
   <si>
-    <t>上官翎技能1</t>
-  </si>
-  <si>
     <t>上官翎技能1投掷物</t>
   </si>
   <si>
     <t>怪物1普通攻击</t>
+  </si>
+  <si>
+    <t>刀疤技能1投掷物 0 度</t>
+  </si>
+  <si>
+    <t>刀疤技能1投掷物 30 度</t>
+  </si>
+  <si>
+    <t>刀疤技能1投掷物 -30 度</t>
   </si>
 </sst>
 </file>
@@ -146,9 +224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -161,14 +239,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +290,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -190,8 +305,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,45 +345,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,48 +368,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,7 +393,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,181 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,15 +599,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,16 +618,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,35 +643,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +679,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,138 +719,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -777,6 +864,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1126,30 +1219,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="24.75" customWidth="1"/>
-    <col min="10" max="10" width="25.75" customWidth="1"/>
-    <col min="11" max="11" width="34.25" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
+    <col min="12" max="12" width="24.75" customWidth="1"/>
+    <col min="13" max="13" width="25.75" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="28.375" customWidth="1"/>
+    <col min="16" max="19" width="19.125" customWidth="1"/>
+    <col min="20" max="20" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1158,7 +1256,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1182,188 +1280,467 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:12">
+    <row r="3" ht="93" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>3001001</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>99999999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>9000</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>4001001</v>
       </c>
-      <c r="L4">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>15008002</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
         <v>3001002</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>2000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>7000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>4001002</v>
       </c>
-      <c r="L5">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>15008003</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+    <row r="6" spans="3:11">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <v>3002001</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>99999999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>9000</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>4002001</v>
       </c>
-      <c r="L7">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>15008003</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="1"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3002010</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>500</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>17000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4002010</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>9999999</v>
+      </c>
+      <c r="T9">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3002011</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>500</v>
+      </c>
+      <c r="H10" s="2">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>17000</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4002010</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>9999999</v>
+      </c>
+      <c r="T10">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3002012</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-30</v>
+      </c>
+      <c r="I11" s="2">
+        <v>17000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4002010</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>9999999</v>
+      </c>
+      <c r="T11">
+        <v>15008003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1379,7 +1756,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1396,7 +1773,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -207,7 +207,19 @@
     <t>上官翎技能1投掷物</t>
   </si>
   <si>
+    <t>唐依 普通攻击投掷物</t>
+  </si>
+  <si>
+    <t>唐依 技能1投掷物</t>
+  </si>
+  <si>
     <t>怪物1普通攻击</t>
+  </si>
+  <si>
+    <t>怪物1 技能1投掷物</t>
+  </si>
+  <si>
+    <t>刀疤 普通攻击</t>
   </si>
   <si>
     <t>刀疤技能1投掷物 0 度</t>
@@ -393,12 +405,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -707,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,16 +737,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,10 +758,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,28 +782,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -794,19 +812,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,42 +833,48 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -865,8 +886,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1219,10 +1243,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1230,7 +1254,7 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="2" customWidth="1"/>
     <col min="6" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
     <col min="9" max="10" width="12.75" customWidth="1"/>
@@ -1247,7 +1271,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1256,7 +1280,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1318,7 +1342,7 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
@@ -1371,96 +1395,96 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="T3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>3001001</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>99999999</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
         <v>9000</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="N4">
@@ -1475,9 +1499,6 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>15008002</v>
-      </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
@@ -1486,32 +1507,32 @@
       <c r="B5">
         <v>3001002</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>500</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <v>7000</v>
       </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
       </c>
       <c r="M5">
         <v>4001002</v>
@@ -1526,120 +1547,88 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>15008003</v>
+        <v>15008016</v>
       </c>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>3002001</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>99999999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>9000</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>4002001</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>15008003</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>3002010</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>500</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>17000</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4002010</v>
+        <v>3001011</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>99999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>4001001</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>15008003</v>
+        <v>15008007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1647,99 +1636,442 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>3002011</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>500</v>
-      </c>
-      <c r="H10" s="2">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2">
-        <v>17000</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
+        <v>3001012</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4002010</v>
+        <v>4001002</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>15008003</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>3002012</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="3:11">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:11">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>3002001</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>99999999</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>4002001</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>3002002</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4002002</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>3003001</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>99999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>4002001</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>3003002</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4002011</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>9999999</v>
+      </c>
+      <c r="T23">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>3003003</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>30</v>
+      </c>
+      <c r="I24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4002011</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>9999999</v>
+      </c>
+      <c r="T24">
+        <v>15008008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>3003004</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>500</v>
+      </c>
+      <c r="H25" s="3">
         <v>-30</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I25" s="3">
         <v>17000</v>
       </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4002010</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="S11">
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4002011</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="S25">
         <v>9999999</v>
       </c>
-      <c r="T11">
-        <v>15008003</v>
+      <c r="T25">
+        <v>15008008</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -394,12 +394,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1245,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>9000</v>
+        <v>99999999</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>9000</v>
+        <v>99999999</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>

--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -210,7 +210,13 @@
     <t>唐依 普通攻击投掷物</t>
   </si>
   <si>
+    <t>唐依 Q 投掷物</t>
+  </si>
+  <si>
     <t>唐依 技能1投掷物</t>
+  </si>
+  <si>
+    <t>唐依 W 投掷物</t>
   </si>
   <si>
     <t>怪物1普通攻击</t>
@@ -394,12 +400,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1246,7 +1252,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1642,7 +1648,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -1666,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4001002</v>
+        <v>4001006</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1681,16 +1687,55 @@
         <v>15008003</v>
       </c>
     </row>
-    <row r="11" spans="3:11">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3001013</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>99999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>4001007</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>15008007</v>
+      </c>
     </row>
     <row r="12" spans="3:11">
       <c r="C12" s="3"/>
@@ -1755,10 +1800,10 @@
         <v>3002001</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
@@ -1802,10 +1847,10 @@
         <v>3002002</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
@@ -1885,10 +1930,10 @@
         <v>3003001</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -1932,10 +1977,10 @@
         <v>3003002</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -1982,10 +2027,10 @@
         <v>3003003</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -2032,10 +2077,10 @@
         <v>3003004</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="7">
         <v>0</v>

--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -102,6 +102,9 @@
     <t>speed</t>
   </si>
   <si>
+    <t>collisionRadius</t>
+  </si>
+  <si>
     <t>isThrough</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
     <t>速度（* 1000）</t>
   </si>
   <si>
+    <t>碰撞半径(*1000)</t>
+  </si>
+  <si>
     <t>是否穿透</t>
   </si>
   <si>
@@ -219,10 +225,19 @@
     <t>唐依 W 投掷物</t>
   </si>
   <si>
+    <t>唐依 R 投掷物</t>
+  </si>
+  <si>
     <t>怪物1普通攻击</t>
   </si>
   <si>
     <t>怪物1 技能1投掷物</t>
+  </si>
+  <si>
+    <t>怪物2普通攻击</t>
+  </si>
+  <si>
+    <t>怪物2 技能1穿透投掷物</t>
   </si>
   <si>
     <t>刀疤 普通攻击</t>
@@ -873,21 +888,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -895,8 +916,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1249,35 +1277,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
     <col min="6" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="21.875" customWidth="1"/>
-    <col min="12" max="12" width="24.75" customWidth="1"/>
-    <col min="13" max="13" width="25.75" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="28.375" customWidth="1"/>
-    <col min="16" max="19" width="19.125" customWidth="1"/>
-    <col min="20" max="20" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="21.875" customWidth="1"/>
+    <col min="13" max="13" width="24.75" customWidth="1"/>
+    <col min="14" max="14" width="25.75" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="28.375" customWidth="1"/>
+    <col min="17" max="20" width="19.125" customWidth="1"/>
+    <col min="21" max="21" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1286,7 +1319,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1334,788 +1367,982 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>21</v>
       </c>
       <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
       </c>
       <c r="R2" t="s">
         <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:20">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:21">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
+      <c r="T3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
         <v>3001001</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <v>99999999</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
         <v>99999999</v>
       </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="J4" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>4001001</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
         <v>3001002</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
         <v>500</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
         <v>7000</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="J5" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>4001002</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="R5">
         <v>0</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>15008016</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="3:11">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="3:11">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+    <row r="6" spans="3:12">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
         <v>3001011</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="C9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
         <v>99999999</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <v>15000</v>
       </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="J9" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>4001001</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="R9">
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>15008007</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:21">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
         <v>3001012</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
         <v>2000</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
         <v>18000</v>
       </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10">
+      <c r="J10" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>4001006</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="R10">
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>15008003</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:21">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
         <v>3001013</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
         <v>99999999</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
         <v>15000</v>
       </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="J11" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>4001007</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="R11">
         <v>0</v>
       </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>15008007</v>
       </c>
     </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="3:11">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="3:11">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="3:11">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="3:11">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
+    <row r="12" spans="1:21">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3001014</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>13001012</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:12">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
         <v>3002001</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
         <v>99999999</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
         <v>99999999</v>
       </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="J17" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>4002001</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
         <v>3002002</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="C18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
         <v>7000</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="J18" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>4002002</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="S18">
+      <c r="R18">
         <v>0</v>
       </c>
       <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>15008003</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
+    <row r="19" spans="3:12">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:21">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3002011</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>99999999</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>8000</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20">
+        <v>4002006</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20"/>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>15008007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3002012</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>12000</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>4002007</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>15008003</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
         <v>3003001</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="C23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
         <v>99999999</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
         <v>9000</v>
       </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="J23" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>4002001</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
         <v>3003002</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="C24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
         <v>17000</v>
       </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23">
+      <c r="J24" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>4002011</v>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="S23">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <v>9999999</v>
       </c>
-      <c r="T23">
+      <c r="U24">
         <v>15008008</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:21">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
         <v>3003003</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="C25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="8">
         <v>30</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="8">
         <v>17000</v>
       </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24">
+      <c r="J25" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>4002011</v>
       </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="S24">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="T25">
         <v>9999999</v>
       </c>
-      <c r="T24">
+      <c r="U25">
         <v>15008008</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:21">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
         <v>3003004</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="C26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
         <v>500</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="8">
         <v>-30</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="8">
         <v>17000</v>
       </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25">
+      <c r="J26" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <v>4002011</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="T26">
         <v>9999999</v>
       </c>
-      <c r="T25">
+      <c r="U26">
         <v>15008008</v>
       </c>
     </row>

--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -268,34 +268,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,14 +284,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,6 +323,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,7 +388,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,49 +447,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,121 +585,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,21 +638,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -685,6 +670,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,148 +743,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -932,52 +932,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1282,7 +1282,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+      <selection pane="topRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2052,19 +2052,15 @@
       <c r="L20" s="8">
         <v>0</v>
       </c>
-      <c r="M20"/>
-      <c r="N20"/>
       <c r="O20">
         <v>4002006</v>
       </c>
-      <c r="P20"/>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
-      <c r="S20"/>
       <c r="T20">
         <v>0</v>
       </c>
@@ -2163,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>9000</v>
+        <v>99999999</v>
       </c>
       <c r="J23" s="8">
         <v>1500</v>

--- a/data_table/ProjectileEffect.xlsx
+++ b/data_table/ProjectileEffect.xlsx
@@ -11,7 +11,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -73,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -142,6 +155,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -255,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1280,9 +1296,9 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1409,13 +1425,13 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
@@ -1438,67 +1454,67 @@
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1509,10 +1525,10 @@
         <v>3001001</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
@@ -1559,10 +1575,10 @@
         <v>3001002</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
@@ -1646,10 +1662,10 @@
         <v>3001011</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
@@ -1699,10 +1715,10 @@
         <v>3001012</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
@@ -1752,10 +1768,10 @@
         <v>3001013</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
@@ -1805,10 +1821,10 @@
         <v>3001014</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -1908,10 +1924,10 @@
         <v>3002001</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="9">
         <v>0</v>
@@ -1958,10 +1974,10 @@
         <v>3002002</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
@@ -2023,10 +2039,10 @@
         <v>3002011</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
@@ -2076,10 +2092,10 @@
         <v>3002012</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="9">
         <v>0</v>
@@ -2141,10 +2157,10 @@
         <v>3003001</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="9">
         <v>0</v>
@@ -2191,10 +2207,10 @@
         <v>3003002</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
@@ -2244,10 +2260,10 @@
         <v>3003003</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" s="9">
         <v>0</v>
@@ -2297,10 +2313,10 @@
         <v>3003004</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
